--- a/BookingDotCom/src/test/resources/testData/Book1.xlsx
+++ b/BookingDotCom/src/test/resources/testData/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/539DD3DFD1ED6422/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palek\git\BookingDotCom\BookingDotCom\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{10DC21BC-11A8-40AA-8EED-28C1710A589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1A98699-410A-4618-9D32-2E82C0053EA9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BC1AD1-911C-4AB2-B30C-62DBBBDF2971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B39CDA0-AD96-431E-A2AD-9CEEAA60F364}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Test123456</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -101,10 +98,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42830711-E571-43C0-9C42-C0A5C0DB3415}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,7 +409,7 @@
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,27 +417,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>123</v>
-      </c>
-      <c r="E2">
-        <v>12.67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -452,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -460,7 +441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -468,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -476,7 +457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -484,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -492,11 +473,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>3</v>
       </c>
     </row>
